--- a/schemtic/原理图检查及PCB控制/PCB走线控制及layout注意事项.xlsx
+++ b/schemtic/原理图检查及PCB控制/PCB走线控制及layout注意事项.xlsx
@@ -1,24 +1,173 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Spartan7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>网络名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供电网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_S7_5V0_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压(V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜皮宽度(mil)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全距离(mil)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率值以80%估算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_S7_1V0_VCCINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_S7_3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_S7_2V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_S7_1V8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_S7_1V35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重点信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻抗控制(Ω)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊走线拓扑要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分对skew控制(mil)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度控制(mil)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器件手册特殊要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADP5053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4通道DCDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局布线建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADP5053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -32,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -40,23 +189,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +576,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>